--- a/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/Straight Path/Antenna_1/Transformed_Coordinates.xlsx
@@ -1522,7 +1522,7 @@
         <v>129.4976957681238</v>
       </c>
       <c r="H36" t="n">
-        <v>98.8198349575526</v>
+        <v>98.81983495755263</v>
       </c>
     </row>
     <row r="37">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>173.8526141382611</v>
+        <v>173.8526141382609</v>
       </c>
       <c r="H53" t="n">
-        <v>82.93394460611923</v>
+        <v>82.93394460611913</v>
       </c>
     </row>
     <row r="54">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>205.5925497199164</v>
+        <v>205.5925497199168</v>
       </c>
       <c r="H54" t="n">
-        <v>83.27038310140341</v>
+        <v>83.27038310140362</v>
       </c>
     </row>
     <row r="55">
@@ -2085,10 +2085,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>180.230038630209</v>
+        <v>180.2300386302092</v>
       </c>
       <c r="H55" t="n">
-        <v>84.26180535744631</v>
+        <v>84.26180535744642</v>
       </c>
     </row>
     <row r="56">
@@ -2201,10 +2201,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>201.8048677877671</v>
+        <v>201.8048677877669</v>
       </c>
       <c r="H59" t="n">
-        <v>78.81450698133874</v>
+        <v>78.81450698133861</v>
       </c>
     </row>
     <row r="60">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>195.2815004376016</v>
+        <v>195.281500437602</v>
       </c>
       <c r="H60" t="n">
-        <v>79.15515491769958</v>
+        <v>79.15515491769982</v>
       </c>
     </row>
     <row r="61">
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>174.0174646619604</v>
+        <v>174.0174646619606</v>
       </c>
       <c r="H61" t="n">
-        <v>79.74475157947077</v>
+        <v>79.74475157947089</v>
       </c>
     </row>
     <row r="62">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>119.5582288021997</v>
+        <v>119.5582288021999</v>
       </c>
       <c r="H62" t="n">
-        <v>89.33911545240784</v>
+        <v>89.33911545240794</v>
       </c>
     </row>
     <row r="63">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>44.01947478250175</v>
+        <v>44.01947478250156</v>
       </c>
       <c r="H65" t="n">
         <v>103.497098690374</v>
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>138.2482368646139</v>
+        <v>138.2482368646143</v>
       </c>
       <c r="H66" t="n">
-        <v>103.0741347602715</v>
+        <v>103.0741347602717</v>
       </c>
     </row>
     <row r="67">
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>124.76028570381</v>
+        <v>124.7602857038102</v>
       </c>
       <c r="H67" t="n">
-        <v>104.3406745587917</v>
+        <v>104.3406745587918</v>
       </c>
     </row>
     <row r="68">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>116.3255374070705</v>
+        <v>116.3255374070707</v>
       </c>
       <c r="H68" t="n">
-        <v>121.652626509328</v>
+        <v>121.6526265093281</v>
       </c>
     </row>
     <row r="69">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>48.09261659821785</v>
+        <v>48.09261659821766</v>
       </c>
       <c r="H71" t="n">
         <v>141.5573876378105</v>
@@ -2591,10 +2591,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>143.7377246740939</v>
+        <v>143.7377246740943</v>
       </c>
       <c r="H72" t="n">
-        <v>141.2537128563824</v>
+        <v>141.2537128563825</v>
       </c>
     </row>
     <row r="73">
@@ -2621,10 +2621,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>87.59726716944772</v>
+        <v>87.59726716944792</v>
       </c>
       <c r="H73" t="n">
-        <v>141.9423309056951</v>
+        <v>141.9423309056952</v>
       </c>
     </row>
     <row r="74">
@@ -2654,7 +2654,7 @@
         <v>-0.06838081312498308</v>
       </c>
       <c r="H74" t="n">
-        <v>97.39835327788008</v>
+        <v>97.39835327788009</v>
       </c>
     </row>
     <row r="75">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>138.4769484740754</v>
+        <v>138.4769484740752</v>
       </c>
       <c r="H75" t="n">
         <v>149.5471627108463</v>
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>131.7906112935176</v>
+        <v>131.790611293518</v>
       </c>
       <c r="H76" t="n">
-        <v>153.4108888652348</v>
+        <v>153.4108888652349</v>
       </c>
     </row>
     <row r="77">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>130.5071589275564</v>
+        <v>130.5071589275562</v>
       </c>
       <c r="H78" t="n">
-        <v>78.37275936921209</v>
+        <v>78.37275936921198</v>
       </c>
     </row>
     <row r="79">
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>199.739150104077</v>
+        <v>199.7391501040767</v>
       </c>
       <c r="H79" t="n">
-        <v>78.92344665912239</v>
+        <v>78.92344665912222</v>
       </c>
     </row>
     <row r="80">
@@ -2861,10 +2861,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>151.0100318249822</v>
+        <v>151.0100318249824</v>
       </c>
       <c r="H81" t="n">
-        <v>77.56108067655337</v>
+        <v>77.5610806765535</v>
       </c>
     </row>
     <row r="82">
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>112.5512012476554</v>
+        <v>112.5512012476552</v>
       </c>
       <c r="H82" t="n">
-        <v>94.05054796724392</v>
+        <v>94.05054796724383</v>
       </c>
     </row>
     <row r="83">
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>170.0334894654325</v>
+        <v>170.0334894654323</v>
       </c>
       <c r="H83" t="n">
-        <v>77.98935264050661</v>
+        <v>77.9893526405065</v>
       </c>
     </row>
     <row r="84">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>94.90786046273013</v>
+        <v>94.90786046273031</v>
       </c>
       <c r="H84" t="n">
-        <v>76.79621028810627</v>
+        <v>76.79621028810638</v>
       </c>
     </row>
     <row r="85">
@@ -2981,10 +2981,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>66.05252289676349</v>
+        <v>66.05252289676389</v>
       </c>
       <c r="H85" t="n">
-        <v>78.4264353639927</v>
+        <v>78.42643536399292</v>
       </c>
     </row>
     <row r="86">
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>161.4351204015407</v>
+        <v>161.4351204015405</v>
       </c>
       <c r="H87" t="n">
-        <v>81.81630130786779</v>
+        <v>81.81630130786768</v>
       </c>
     </row>
     <row r="88">
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>222.7386169970289</v>
+        <v>222.7386169970287</v>
       </c>
       <c r="H88" t="n">
-        <v>87.76255360747614</v>
+        <v>87.76255360747604</v>
       </c>
     </row>
     <row r="89">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>250.0416084970881</v>
+        <v>250.0416084970883</v>
       </c>
       <c r="H89" t="n">
-        <v>93.90467267925655</v>
+        <v>93.90467267925663</v>
       </c>
     </row>
     <row r="90">
@@ -3131,10 +3131,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>137.3039908744681</v>
+        <v>137.3039908744679</v>
       </c>
       <c r="H90" t="n">
-        <v>84.40038555524858</v>
+        <v>84.40038555524845</v>
       </c>
     </row>
     <row r="91">
@@ -3161,10 +3161,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>188.6222488392047</v>
+        <v>188.622248839205</v>
       </c>
       <c r="H91" t="n">
-        <v>81.2964533136135</v>
+        <v>81.29645331361371</v>
       </c>
     </row>
     <row r="92">
@@ -3191,10 +3191,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>129.3778788592489</v>
+        <v>129.3778788592493</v>
       </c>
       <c r="H92" t="n">
-        <v>97.7665817232828</v>
+        <v>97.76658172328301</v>
       </c>
     </row>
     <row r="93">
@@ -3221,10 +3221,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>135.6687562703972</v>
+        <v>135.6687562703974</v>
       </c>
       <c r="H93" t="n">
-        <v>88.51495708289846</v>
+        <v>88.51495708289856</v>
       </c>
     </row>
     <row r="94">
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>80.77590324697628</v>
+        <v>80.775903246976</v>
       </c>
       <c r="H94" t="n">
-        <v>125.4453351344622</v>
+        <v>125.4453351344621</v>
       </c>
     </row>
     <row r="95">
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>69.06997819536066</v>
+        <v>69.06997819536105</v>
       </c>
       <c r="H95" t="n">
-        <v>128.9749300371416</v>
+        <v>128.9749300371418</v>
       </c>
     </row>
     <row r="96">
@@ -3341,10 +3341,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>86.36222625564655</v>
+        <v>86.36222625564635</v>
       </c>
       <c r="H97" t="n">
-        <v>106.7314793128131</v>
+        <v>106.731479312813</v>
       </c>
     </row>
     <row r="98">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>26.43462313253653</v>
+        <v>26.43462313253633</v>
       </c>
       <c r="H98" t="n">
-        <v>110.2237219017111</v>
+        <v>110.223721901711</v>
       </c>
     </row>
     <row r="99">
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-41.3316233396504</v>
+        <v>-41.33162333965</v>
       </c>
       <c r="H99" t="n">
-        <v>114.6901013891249</v>
+        <v>114.690101389125</v>
       </c>
     </row>
     <row r="100">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>-24.55016715995544</v>
+        <v>-24.55016715995524</v>
       </c>
       <c r="H101" t="n">
         <v>122.016596255904</v>
